--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999979615443104</v>
+        <v>0.9999999667885955</v>
       </c>
       <c r="E2">
-        <v>0.9999979615443104</v>
+        <v>0.9999999667885955</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01467881394997994</v>
+        <v>0.01462120494210556</v>
       </c>
       <c r="E3">
-        <v>0.01467881394997994</v>
+        <v>0.01462120494210556</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.098512474123069E-08</v>
+        <v>4.352120057555408E-10</v>
       </c>
       <c r="E4">
-        <v>1.098512474123069E-08</v>
+        <v>4.352120057555408E-10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.432253694260835E-37</v>
+        <v>1.691215890752005E-29</v>
       </c>
       <c r="E5">
-        <v>2.432253694260835E-37</v>
+        <v>1.691215890752005E-29</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.277096138313025E-31</v>
+        <v>3.905607788615773E-50</v>
       </c>
       <c r="E6">
-        <v>3.277096138313025E-31</v>
+        <v>3.905607788615773E-50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999998941143</v>
+        <v>0.999999999997889</v>
       </c>
       <c r="E8">
-        <v>1.058857446167849E-10</v>
+        <v>2.110978059022273E-12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.506382656952814E-294</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.747692553002803E-12</v>
+        <v>5.492476505148903E-06</v>
       </c>
       <c r="E10">
-        <v>0.9999999999952524</v>
+        <v>0.9999945075234948</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.723532866981318E-05</v>
+        <v>0.0003789383652183232</v>
       </c>
       <c r="E11">
-        <v>0.9999627646713302</v>
+        <v>0.9996210616347817</v>
       </c>
       <c r="F11">
-        <v>72.5430908203125</v>
+        <v>99.01937103271484</v>
       </c>
       <c r="G11">
         <v>0.6</v>
